--- a/realme/May/Others/Imei Transfer Natore.xlsx
+++ b/realme/May/Others/Imei Transfer Natore.xlsx
@@ -278,10 +278,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2501,7 @@
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,12 +2517,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3517,22 +3517,22 @@
       <c r="C188" s="7"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="12"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="12"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="12"/>
+      <c r="C191" s="11"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="12"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="12"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="12"/>
+      <c r="C194" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
